--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1BC00245-C0E9-46D6-BFA7-7553ADBC7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F778250-0EB5-425C-9F57-264BEEDA1F43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC7EB36-0824-4D08-BB11-880DE6D727B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1746,7 +1746,13 @@
     <t>Nufus</t>
   </si>
   <si>
-    <t>1.500.000</t>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
@@ -1909,10 +1915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2180,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,7 +2191,7 @@
     <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2219,11 +2221,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>1500000.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2334,11 +2336,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2407,11 +2409,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4885,7 +4887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
